--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="H2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="I2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="J2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>80.61697467677691</v>
+        <v>1.114886</v>
       </c>
       <c r="N2">
-        <v>80.61697467677691</v>
+        <v>3.344658</v>
       </c>
       <c r="O2">
-        <v>0.7590953472975679</v>
+        <v>0.01026455462504307</v>
       </c>
       <c r="P2">
-        <v>0.7590953472975679</v>
+        <v>0.01026455462504307</v>
       </c>
       <c r="Q2">
-        <v>801.5986796312898</v>
+        <v>17.12335643549733</v>
       </c>
       <c r="R2">
-        <v>801.5986796312898</v>
+        <v>154.110207919476</v>
       </c>
       <c r="S2">
-        <v>0.05281721954218731</v>
+        <v>0.001038816878068744</v>
       </c>
       <c r="T2">
-        <v>0.05281721954218731</v>
+        <v>0.001038816878068744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="H3">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="I3">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="J3">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.5844069596393</v>
+        <v>80.666326</v>
       </c>
       <c r="N3">
-        <v>25.5844069596393</v>
+        <v>241.998978</v>
       </c>
       <c r="O3">
-        <v>0.2409046527024321</v>
+        <v>0.7426803364904859</v>
       </c>
       <c r="P3">
-        <v>0.2409046527024321</v>
+        <v>0.7426803364904858</v>
       </c>
       <c r="Q3">
-        <v>254.3934068503844</v>
+        <v>1238.941248199391</v>
       </c>
       <c r="R3">
-        <v>254.3934068503844</v>
+        <v>11150.47123379451</v>
       </c>
       <c r="S3">
-        <v>0.01676194430095872</v>
+        <v>0.07516243000683077</v>
       </c>
       <c r="T3">
-        <v>0.01676194430095872</v>
+        <v>0.07516243000683077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.572725955246</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="H4">
-        <v>50.572725955246</v>
+        <v>46.076522</v>
       </c>
       <c r="I4">
-        <v>0.3538873771206544</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="J4">
-        <v>0.3538873771206544</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>80.61697467677691</v>
+        <v>0.6900326666666666</v>
       </c>
       <c r="N4">
-        <v>80.61697467677691</v>
+        <v>2.070098</v>
       </c>
       <c r="O4">
-        <v>0.7590953472975679</v>
+        <v>0.006353006495788928</v>
       </c>
       <c r="P4">
-        <v>0.7590953472975679</v>
+        <v>0.006353006495788927</v>
       </c>
       <c r="Q4">
-        <v>4077.020167669645</v>
+        <v>10.59810178212844</v>
       </c>
       <c r="R4">
-        <v>4077.020167669645</v>
+        <v>95.38291603915599</v>
       </c>
       <c r="S4">
-        <v>0.2686342614396285</v>
+        <v>0.0006429514592093871</v>
       </c>
       <c r="T4">
-        <v>0.2686342614396285</v>
+        <v>0.0006429514592093871</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.572725955246</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="H5">
-        <v>50.572725955246</v>
+        <v>46.076522</v>
       </c>
       <c r="I5">
-        <v>0.3538873771206544</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="J5">
-        <v>0.3538873771206544</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.5844069596393</v>
+        <v>26.14389166666666</v>
       </c>
       <c r="N5">
-        <v>25.5844069596393</v>
+        <v>78.431675</v>
       </c>
       <c r="O5">
-        <v>0.2409046527024321</v>
+        <v>0.2407021023886821</v>
       </c>
       <c r="P5">
-        <v>0.2409046527024321</v>
+        <v>0.2407021023886821</v>
       </c>
       <c r="Q5">
-        <v>1293.873201897327</v>
+        <v>401.5398665149277</v>
       </c>
       <c r="R5">
-        <v>1293.873201897327</v>
+        <v>3613.85879863435</v>
       </c>
       <c r="S5">
-        <v>0.08525311568102588</v>
+        <v>0.02436008338227775</v>
       </c>
       <c r="T5">
-        <v>0.08525311568102588</v>
+        <v>0.02436008338227775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.9893093675663</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="H6">
-        <v>56.9893093675663</v>
+        <v>151.777694</v>
       </c>
       <c r="I6">
-        <v>0.398788019333839</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="J6">
-        <v>0.398788019333839</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>80.61697467677691</v>
+        <v>1.114886</v>
       </c>
       <c r="N6">
-        <v>80.61697467677691</v>
+        <v>3.344658</v>
       </c>
       <c r="O6">
-        <v>0.7590953472975679</v>
+        <v>0.01026455462504307</v>
       </c>
       <c r="P6">
-        <v>0.7590953472975679</v>
+        <v>0.01026455462504307</v>
       </c>
       <c r="Q6">
-        <v>4594.305710132097</v>
+        <v>56.40494205096134</v>
       </c>
       <c r="R6">
-        <v>4594.305710132097</v>
+        <v>507.644478458652</v>
       </c>
       <c r="S6">
-        <v>0.3027181300343297</v>
+        <v>0.003421899557469922</v>
       </c>
       <c r="T6">
-        <v>0.3027181300343297</v>
+        <v>0.003421899557469921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.9893093675663</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="H7">
-        <v>56.9893093675663</v>
+        <v>151.777694</v>
       </c>
       <c r="I7">
-        <v>0.398788019333839</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="J7">
-        <v>0.398788019333839</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.5844069596393</v>
+        <v>80.666326</v>
       </c>
       <c r="N7">
-        <v>25.5844069596393</v>
+        <v>241.998978</v>
       </c>
       <c r="O7">
-        <v>0.2409046527024321</v>
+        <v>0.7426803364904859</v>
       </c>
       <c r="P7">
-        <v>0.2409046527024321</v>
+        <v>0.7426803364904858</v>
       </c>
       <c r="Q7">
-        <v>1458.0376832086</v>
+        <v>4081.116314577415</v>
       </c>
       <c r="R7">
-        <v>1458.0376832086</v>
+        <v>36730.04683119673</v>
       </c>
       <c r="S7">
-        <v>0.09606988929950927</v>
+        <v>0.247587704251488</v>
       </c>
       <c r="T7">
-        <v>0.09606988929950927</v>
+        <v>0.247587704251488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.4009382448175</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="H8">
-        <v>25.4009382448175</v>
+        <v>151.777694</v>
       </c>
       <c r="I8">
-        <v>0.1777454397023606</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="J8">
-        <v>0.1777454397023606</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>80.61697467677691</v>
+        <v>0.6900326666666666</v>
       </c>
       <c r="N8">
-        <v>80.61697467677691</v>
+        <v>2.070098</v>
       </c>
       <c r="O8">
-        <v>0.7590953472975679</v>
+        <v>0.006353006495788928</v>
       </c>
       <c r="P8">
-        <v>0.7590953472975679</v>
+        <v>0.006353006495788927</v>
       </c>
       <c r="Q8">
-        <v>2047.746795248826</v>
+        <v>34.91052231044578</v>
       </c>
       <c r="R8">
-        <v>2047.746795248826</v>
+        <v>314.194700794012</v>
       </c>
       <c r="S8">
-        <v>0.1349257362814223</v>
+        <v>0.002117904859067615</v>
       </c>
       <c r="T8">
-        <v>0.1349257362814223</v>
+        <v>0.002117904859067614</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.4009382448175</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="H9">
-        <v>25.4009382448175</v>
+        <v>151.777694</v>
       </c>
       <c r="I9">
-        <v>0.1777454397023606</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="J9">
-        <v>0.1777454397023606</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.5844069596393</v>
+        <v>26.14389166666666</v>
       </c>
       <c r="N9">
-        <v>25.5844069596393</v>
+        <v>78.431675</v>
       </c>
       <c r="O9">
-        <v>0.2409046527024321</v>
+        <v>0.2407021023886821</v>
       </c>
       <c r="P9">
-        <v>0.2409046527024321</v>
+        <v>0.2407021023886821</v>
       </c>
       <c r="Q9">
-        <v>649.8679412120769</v>
+        <v>1322.686529784161</v>
       </c>
       <c r="R9">
-        <v>649.8679412120769</v>
+        <v>11904.17876805745</v>
       </c>
       <c r="S9">
-        <v>0.04281970342093828</v>
+        <v>0.08024297670318602</v>
       </c>
       <c r="T9">
-        <v>0.04281970342093828</v>
+        <v>0.080242976703186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60.37715666666667</v>
+      </c>
+      <c r="H10">
+        <v>181.13147</v>
+      </c>
+      <c r="I10">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="J10">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.114886</v>
+      </c>
+      <c r="N10">
+        <v>3.344658</v>
+      </c>
+      <c r="O10">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="P10">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="Q10">
+        <v>67.31364668747334</v>
+      </c>
+      <c r="R10">
+        <v>605.82282018726</v>
+      </c>
+      <c r="S10">
+        <v>0.004083694255078592</v>
+      </c>
+      <c r="T10">
+        <v>0.004083694255078592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60.37715666666667</v>
+      </c>
+      <c r="H11">
+        <v>181.13147</v>
+      </c>
+      <c r="I11">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="J11">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>80.666326</v>
+      </c>
+      <c r="N11">
+        <v>241.998978</v>
+      </c>
+      <c r="O11">
+        <v>0.7426803364904859</v>
+      </c>
+      <c r="P11">
+        <v>0.7426803364904858</v>
+      </c>
+      <c r="Q11">
+        <v>4870.403402626407</v>
+      </c>
+      <c r="R11">
+        <v>43833.63062363766</v>
+      </c>
+      <c r="S11">
+        <v>0.2954711172841859</v>
+      </c>
+      <c r="T11">
+        <v>0.2954711172841858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60.37715666666667</v>
+      </c>
+      <c r="H12">
+        <v>181.13147</v>
+      </c>
+      <c r="I12">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="J12">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.6900326666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.070098</v>
+      </c>
+      <c r="O12">
+        <v>0.006353006495788928</v>
+      </c>
+      <c r="P12">
+        <v>0.006353006495788927</v>
+      </c>
+      <c r="Q12">
+        <v>41.66221042045111</v>
+      </c>
+      <c r="R12">
+        <v>374.95989378406</v>
+      </c>
+      <c r="S12">
+        <v>0.002527507239918007</v>
+      </c>
+      <c r="T12">
+        <v>0.002527507239918007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60.37715666666667</v>
+      </c>
+      <c r="H13">
+        <v>181.13147</v>
+      </c>
+      <c r="I13">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="J13">
+        <v>0.397844271305776</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.14389166666666</v>
+      </c>
+      <c r="N13">
+        <v>78.431675</v>
+      </c>
+      <c r="O13">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="P13">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="Q13">
+        <v>1578.493843034694</v>
+      </c>
+      <c r="R13">
+        <v>14206.44458731225</v>
+      </c>
+      <c r="S13">
+        <v>0.09576195252659352</v>
+      </c>
+      <c r="T13">
+        <v>0.0957619525265935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="H14">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="J14">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.114886</v>
+      </c>
+      <c r="N14">
+        <v>3.344658</v>
+      </c>
+      <c r="O14">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="P14">
+        <v>0.01026455462504307</v>
+      </c>
+      <c r="Q14">
+        <v>28.35402305389066</v>
+      </c>
+      <c r="R14">
+        <v>255.186207485016</v>
+      </c>
+      <c r="S14">
+        <v>0.00172014393442581</v>
+      </c>
+      <c r="T14">
+        <v>0.00172014393442581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="H15">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="J15">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>80.666326</v>
+      </c>
+      <c r="N15">
+        <v>241.998978</v>
+      </c>
+      <c r="O15">
+        <v>0.7426803364904859</v>
+      </c>
+      <c r="P15">
+        <v>0.7426803364904858</v>
+      </c>
+      <c r="Q15">
+        <v>2051.523534313517</v>
+      </c>
+      <c r="R15">
+        <v>18463.71180882166</v>
+      </c>
+      <c r="S15">
+        <v>0.1244590849479812</v>
+      </c>
+      <c r="T15">
+        <v>0.1244590849479812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="H16">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="J16">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.6900326666666666</v>
+      </c>
+      <c r="N16">
+        <v>2.070098</v>
+      </c>
+      <c r="O16">
+        <v>0.006353006495788928</v>
+      </c>
+      <c r="P16">
+        <v>0.006353006495788927</v>
+      </c>
+      <c r="Q16">
+        <v>17.54906074576622</v>
+      </c>
+      <c r="R16">
+        <v>157.941546711896</v>
+      </c>
+      <c r="S16">
+        <v>0.001064642937593918</v>
+      </c>
+      <c r="T16">
+        <v>0.001064642937593918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.43221733333333</v>
+      </c>
+      <c r="H17">
+        <v>76.29665199999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1675809615966257</v>
+      </c>
+      <c r="J17">
+        <v>0.1675809615966258</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.14389166666666</v>
+      </c>
+      <c r="N17">
+        <v>78.431675</v>
+      </c>
+      <c r="O17">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="P17">
+        <v>0.2407021023886821</v>
+      </c>
+      <c r="Q17">
+        <v>664.8971348057888</v>
+      </c>
+      <c r="R17">
+        <v>5984.074213252099</v>
+      </c>
+      <c r="S17">
+        <v>0.04033708977662482</v>
+      </c>
+      <c r="T17">
+        <v>0.04033708977662482</v>
       </c>
     </row>
   </sheetData>
